--- a/excelgraph/graph.xlsx
+++ b/excelgraph/graph.xlsx
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.921355113226984</v>
+        <v>-0.01146758998049605</v>
       </c>
       <c r="C2" t="n">
-        <v>2.517945213329024</v>
+        <v>-1.275230352216053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4415664807431863</v>
+        <v>0.0009629530058638372</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8981420148757603</v>
+        <v>-2.895897041282506</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2716688197454815</v>
+        <v>0.8722536302721744</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8067848052047343</v>
+        <v>0.510227992032975</v>
       </c>
     </row>
     <row r="3">
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8745938275105917</v>
+        <v>1.348052325453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.198865982032784</v>
+        <v>-1.221486670445015</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.092882625810249</v>
+        <v>1.07159919076581</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7432599946127173</v>
+        <v>-0.1490855380130881</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.355548030988988</v>
+        <v>1.120190786949186</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.271431704529756</v>
+        <v>-0.029297624167476</v>
       </c>
     </row>
     <row r="4">
@@ -517,22 +517,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3716163057256415</v>
+        <v>-1.632772990236532</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08608663779791098</v>
+        <v>-0.2243696372628234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.295701429315512</v>
+        <v>-0.1198826971808088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1886593448025725</v>
+        <v>0.3962087965056967</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3250425501096472</v>
+        <v>-0.2678377560603751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07989648926419948</v>
+        <v>0.1250608784442693</v>
       </c>
     </row>
     <row r="5">
@@ -540,22 +540,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5185719533040493</v>
+        <v>0.5176137823547957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8739972185036052</v>
+        <v>-2.356701709369165</v>
       </c>
       <c r="D5" t="n">
-        <v>2.722961147216505</v>
+        <v>-0.4609501811030577</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1038633034163913</v>
+        <v>-0.7133064340989946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07477816170758056</v>
+        <v>-0.534789653486227</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355781005682334</v>
+        <v>-0.4220332665718817</v>
       </c>
     </row>
     <row r="6">
@@ -563,22 +563,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.68273201581801</v>
+        <v>0.3876877818584438</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8528595801543086</v>
+        <v>-0.2494840340074695</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05424323283507849</v>
+        <v>-1.578954712135312</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.748294018119357</v>
+        <v>0.8538220246042931</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.425516580019766</v>
+        <v>0.4239802434167621</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.663868301535906</v>
+        <v>0.3856758096510321</v>
       </c>
     </row>
     <row r="7">
@@ -586,22 +586,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2401304225917527</v>
+        <v>0.3291796991554026</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3534272594680637</v>
+        <v>0.4169431866839673</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6253726543773926</v>
+        <v>0.7999117758477871</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4332798028065965</v>
+        <v>-1.66086447073539</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02067609962446231</v>
+        <v>-1.301329038130943</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.318086478899284</v>
+        <v>0.8046634071154464</v>
       </c>
     </row>
     <row r="8">
@@ -609,22 +609,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.88808165968764</v>
+        <v>-0.1712153908970421</v>
       </c>
       <c r="C8" t="n">
-        <v>1.166380800014928</v>
+        <v>1.077898513069592</v>
       </c>
       <c r="D8" t="n">
-        <v>1.199115045483049</v>
+        <v>0.6285623598688839</v>
       </c>
       <c r="E8" t="n">
-        <v>1.221981992152979</v>
+        <v>0.4282730461252459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6086183113834848</v>
+        <v>-0.03756106405082613</v>
       </c>
       <c r="G8" t="n">
-        <v>1.506937658349211</v>
+        <v>0.1898518622935352</v>
       </c>
     </row>
     <row r="9">
@@ -632,22 +632,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8724420939667942</v>
+        <v>-1.714401668245322</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.215787749304718</v>
+        <v>0.5853438325637413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4705667029558649</v>
+        <v>-0.9956183831869705</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.955263651885521</v>
+        <v>0.7870064733255255</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9791498929123326</v>
+        <v>-0.5383436609035435</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.155301943479393</v>
+        <v>0.8737806240784952</v>
       </c>
     </row>
     <row r="10">
@@ -655,22 +655,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1301794624771018</v>
+        <v>-0.6705679216126176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7499058225162155</v>
+        <v>0.2001698728985874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2749304814501398</v>
+        <v>0.3482631195713422</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8094442096431811</v>
+        <v>1.096425859328901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6946223600824387</v>
+        <v>-0.2693191637849205</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6661617282974917</v>
+        <v>-1.310581539267325</v>
       </c>
     </row>
     <row r="11">
@@ -678,22 +678,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.882669619640149</v>
+        <v>-0.05508971675715038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.520351701439106</v>
+        <v>-1.465389666651382</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5225429557575663</v>
+        <v>-0.8955055667722878</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1126023982367365</v>
+        <v>1.276018457718923</v>
       </c>
       <c r="F11" t="n">
-        <v>1.296770492219815</v>
+        <v>1.084358332359815</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7312523517436245</v>
+        <v>0.03113936142742681</v>
       </c>
     </row>
   </sheetData>
